--- a/Document Library/V-Baby BOM.xlsx
+++ b/Document Library/V-Baby BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Document Library\GitHub\V-Baby CoreXY\Document Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1548" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{A20222D1-6154-4844-902C-2163BBD09917}"/>
+  <xr:revisionPtr revIDLastSave="1560" documentId="11_2E462098BBA7632759C38D02185E4833A2B67484" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFF2102E-47A2-465D-A871-68E58D0DAED3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="187">
   <si>
     <t>Exstrusions</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Includes Stepper motor</t>
   </si>
   <si>
-    <t>Worm Stepper</t>
-  </si>
-  <si>
     <t>Heat Bed Build Plate</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>TMC2209 UART x2</t>
+  </si>
+  <si>
+    <t>1/17 Worm Stepper</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1184,7 +1184,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1762,11 +1761,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G1" s="51"/>
       <c r="H1" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I1" s="64"/>
       <c r="J1" s="66" t="s">
@@ -1779,8 +1778,8 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="105" t="s">
-        <v>167</v>
+      <c r="F2" s="104" t="s">
+        <v>166</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="59"/>
@@ -1804,7 +1803,7 @@
         <f>D3*310</f>
         <v>1240</v>
       </c>
-      <c r="F3" s="106"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="48"/>
       <c r="H3" s="58"/>
       <c r="I3" s="18"/>
@@ -1827,7 +1826,7 @@
         <f>D4*350</f>
         <v>1400</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="48"/>
       <c r="H4" s="59"/>
       <c r="I4" s="50"/>
@@ -1850,7 +1849,7 @@
         <f>D5*340</f>
         <v>1700</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="48"/>
       <c r="H5" s="58"/>
       <c r="I5" s="18"/>
@@ -1873,7 +1872,7 @@
         <f>D6*295</f>
         <v>295</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="48"/>
       <c r="H6" s="59"/>
       <c r="I6" s="50"/>
@@ -1885,7 +1884,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="106"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="48"/>
       <c r="H7" s="29"/>
       <c r="I7" s="8"/>
@@ -1908,7 +1907,7 @@
         <f>D8*290</f>
         <v>290</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="48"/>
       <c r="H8" s="59"/>
       <c r="I8" s="50"/>
@@ -1931,7 +1930,7 @@
         <f>D9*350</f>
         <v>700</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="48"/>
       <c r="H9" s="58"/>
       <c r="I9" s="18"/>
@@ -1952,13 +1951,13 @@
         <f>SUM(E3:E9)</f>
         <v>5625</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="48"/>
       <c r="H10" s="60" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J10" s="67">
         <v>27</v>
@@ -1970,7 +1969,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="106"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="48"/>
       <c r="H11" s="29" t="s">
         <v>28</v>
@@ -1994,13 +1993,13 @@
         <v>18</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="106"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="48"/>
       <c r="H12" s="60" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="67">
         <v>15</v>
@@ -2012,7 +2011,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="106"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="48"/>
       <c r="H13" s="29"/>
       <c r="I13" s="70"/>
@@ -2032,13 +2031,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="48"/>
       <c r="H14" s="60" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J14" s="67">
         <v>12</v>
@@ -2140,7 +2139,7 @@
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
       <c r="F21" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="29" t="s">
@@ -2154,7 +2153,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -2207,8 +2206,8 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2217,28 +2216,28 @@
   <sheetData>
     <row r="1" spans="1:12" s="76" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="E1" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="F1" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="G1" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="H1" s="86" t="s">
         <v>181</v>
-      </c>
-      <c r="H1" s="86" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2254,14 +2253,14 @@
       <c r="D2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="97" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="74"/>
       <c r="G2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="96" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2317,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="85">
         <v>12</v>
@@ -2337,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="85">
         <v>11</v>
@@ -2741,42 +2740,46 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="E26" s="85">
         <v>37</v>
       </c>
       <c r="F26" s="53"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="93"/>
+      <c r="G26" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="85">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="C27" s="9">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="85">
         <v>16</v>
       </c>
       <c r="F27" s="53"/>
-      <c r="G27" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="96">
+      <c r="G27" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="95">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2812,17 +2815,18 @@
     <hyperlink ref="D15" r:id="rId19" xr:uid="{537A3F3C-7C92-42A9-B8B2-F37129F7787F}"/>
     <hyperlink ref="D4" r:id="rId20" display="Mini 12864" xr:uid="{56BAC9A8-6A57-4E69-944B-AE64A70C2A1E}"/>
     <hyperlink ref="D17" r:id="rId21" xr:uid="{82909F8B-3A14-4248-8CB2-384756C6E8BE}"/>
-    <hyperlink ref="D26" r:id="rId22" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
+    <hyperlink ref="D26" r:id="rId22" display="Worm Stepper" xr:uid="{0D6A5659-9181-49D0-A7D8-101F63076C8A}"/>
     <hyperlink ref="G27" r:id="rId23" display="CLEVER3D" xr:uid="{7B1D2EFC-9E0A-4BD0-B66C-2C091262564C}"/>
     <hyperlink ref="D10" r:id="rId24" xr:uid="{4AEFCE09-28B7-4C24-82DE-ADAB9CAA43E1}"/>
     <hyperlink ref="D11" r:id="rId25" xr:uid="{0ED2334F-09CF-437E-82F8-E81D86F288DC}"/>
     <hyperlink ref="D23" r:id="rId26" display="8X With High End" xr:uid="{87CB364F-700B-4E81-BC67-3C859C1B7934}"/>
     <hyperlink ref="D24" r:id="rId27" display="5X High End" xr:uid="{D4CB98E8-7A2B-495D-9E37-8208D21A6270}"/>
+    <hyperlink ref="G26" r:id="rId28" display="1/17 Alternative" xr:uid="{C2F85E16-6DCE-4455-AAFB-64BC7439D25F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId28"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2853,11 +2857,11 @@
       <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="99" t="s">
-        <v>120</v>
+      <c r="D1" s="98" t="s">
+        <v>119</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -2871,521 +2875,521 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="32">
         <v>2</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="32">
         <v>4</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="99">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="C4" s="32">
         <v>4</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="99">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="32">
         <v>11</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="99">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="C8" s="32">
         <v>15</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="99">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="32">
         <v>6</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="99">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="32">
         <v>9</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="99">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="32">
         <v>5</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="99">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="32">
         <v>8</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="99">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="C13" s="32">
         <v>2</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="C14" s="32">
         <v>5</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="99">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="32">
         <v>5</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="99">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="32">
         <v>13</v>
       </c>
-      <c r="D16" s="100">
+      <c r="D16" s="99">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="32">
         <v>6</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="99">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="32">
         <v>2</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="32">
         <v>1</v>
       </c>
-      <c r="D19" s="100">
+      <c r="D19" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="32">
         <v>3</v>
       </c>
-      <c r="D20" s="100">
+      <c r="D20" s="99">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
       </c>
-      <c r="D21" s="100">
+      <c r="D21" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
       </c>
-      <c r="D22" s="100">
+      <c r="D22" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="32">
         <v>28</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="99">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="32">
         <v>6</v>
       </c>
-      <c r="D24" s="100">
+      <c r="D24" s="99">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="C25" s="32">
         <v>50</v>
       </c>
-      <c r="D25" s="100">
+      <c r="D25" s="99">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="C26" s="32">
         <v>63</v>
       </c>
-      <c r="D26" s="100">
+      <c r="D26" s="99">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="C27" s="32">
         <v>143</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="99">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="32">
         <v>200</v>
       </c>
-      <c r="D28" s="100">
+      <c r="D28" s="99">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="32">
         <v>142</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="99">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="32">
         <v>8</v>
       </c>
-      <c r="D30" s="100">
+      <c r="D30" s="99">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="32">
         <v>1</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="32">
         <v>2</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="32">
         <v>2</v>
       </c>
-      <c r="D33" s="100">
+      <c r="D33" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="32">
         <v>18</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D34" s="99">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="32">
         <v>8</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="99">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C36" s="32">
         <v>4</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D36" s="99">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="72"/>
-      <c r="C37" s="102">
+      <c r="C37" s="101">
         <f>SUM(C2:C36)</f>
         <v>782</v>
       </c>
-      <c r="D37" s="103">
+      <c r="D37" s="102">
         <f>SUM(D2:D36)</f>
         <v>806</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="104">
+      <c r="D38" s="103">
         <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
